--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1013.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1013.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.194639860500447</v>
+        <v>1.422602653503418</v>
       </c>
       <c r="B1">
-        <v>3.17053721081289</v>
+        <v>2.135307312011719</v>
       </c>
       <c r="C1">
-        <v>3.937141736485111</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.143768109252455</v>
+        <v>1.778645038604736</v>
       </c>
       <c r="E1">
-        <v>1.01478180359647</v>
+        <v>0.7235150337219238</v>
       </c>
     </row>
   </sheetData>
